--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LFAggregated C-A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LFAggregated C-A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
@@ -34,13 +34,13 @@
     <t>-0.326***</t>
   </si>
   <si>
-    <t>-0.261*</t>
-  </si>
-  <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t>-0.454**</t>
+    <t>-0.302*</t>
+  </si>
+  <si>
+    <t>0.146*</t>
+  </si>
+  <si>
+    <t>-0.462**</t>
   </si>
 </sst>
 </file>
